--- a/Linearisierungen/Kessel Kosten.xlsx
+++ b/Linearisierungen/Kessel Kosten.xlsx
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,7 +1974,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="1">
-        <f>(4521.33+675.3492*I4^0.5753)/1000</f>
+        <f t="shared" ref="J4:J11" si="0">(4521.33+675.3492*I4^0.5753)/1000</f>
         <v>14.074079506085383</v>
       </c>
     </row>
@@ -1986,14 +1986,14 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C10" si="0">A5*B5/1000</f>
+        <f t="shared" ref="C5:C10" si="1">A5*B5/1000</f>
         <v>10</v>
       </c>
       <c r="I5">
         <v>300</v>
       </c>
       <c r="J5" s="1">
-        <f>(4521.33+675.3492*I5^0.5753)/1000</f>
+        <f t="shared" si="0"/>
         <v>22.494150942233574</v>
       </c>
     </row>
@@ -2005,14 +2005,14 @@
         <v>90</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="I6">
         <v>500</v>
       </c>
       <c r="J6" s="1">
-        <f>(4521.33+675.3492*I6^0.5753)/1000</f>
+        <f t="shared" si="0"/>
         <v>28.634029465294255</v>
       </c>
     </row>
@@ -2024,14 +2024,14 @@
         <v>90</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I7">
         <v>700</v>
       </c>
       <c r="J7" s="1">
-        <f>(4521.33+675.3492*I7^0.5753)/1000</f>
+        <f t="shared" si="0"/>
         <v>33.783955694014857</v>
       </c>
     </row>
@@ -2043,14 +2043,14 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I8">
         <v>900</v>
       </c>
       <c r="J8" s="1">
-        <f>(4521.33+675.3492*I8^0.5753)/1000</f>
+        <f t="shared" si="0"/>
         <v>38.335918398430763</v>
       </c>
     </row>
@@ -2062,14 +2062,14 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I9">
         <v>1100</v>
       </c>
       <c r="J9" s="1">
-        <f>(4521.33+675.3492*I9^0.5753)/1000</f>
+        <f t="shared" si="0"/>
         <v>42.473935966112123</v>
       </c>
     </row>
@@ -2081,14 +2081,14 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I10">
         <v>1300</v>
       </c>
       <c r="J10" s="1">
-        <f>(4521.33+675.3492*I10^0.5753)/1000</f>
+        <f t="shared" si="0"/>
         <v>46.302442560692441</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
         <v>1500</v>
       </c>
       <c r="J11" s="1">
-        <f>(4521.33+675.3492*I11^0.5753)/1000</f>
+        <f t="shared" si="0"/>
         <v>49.887664545625164</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>200</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B22" si="1">706.18*A17^(-0.3898)*A17/1000</f>
+        <f t="shared" ref="B17:B20" si="2">706.18*A17^(-0.3898)*A17/1000</f>
         <v>17.906220037042921</v>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>300</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.932679588678656</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
         <v>400</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.333322169614885</v>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
         <v>500</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.320371897662696</v>
       </c>
     </row>

--- a/Linearisierungen/Kessel Kosten.xlsx
+++ b/Linearisierungen/Kessel Kosten.xlsx
@@ -1928,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>

--- a/Linearisierungen/Kessel Kosten.xlsx
+++ b/Linearisierungen/Kessel Kosten.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{8F76EDEB-E990-43B2-831B-466D39F79FD4}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E7848E11-637A-4160-9D2E-A921C0E9C54F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
+    <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -122,7 +123,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Bundesministerium</c:v>
+            <c:v>BMVBS Publikation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -133,15 +134,13 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -209,7 +208,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{00000000-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -262,7 +261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{00000001-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -280,16 +279,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -363,7 +360,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{00000002-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -384,10 +381,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Regression</c:name>
             <c:spPr>
-              <a:ln w="12700" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -396,37 +394,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -545,7 +513,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{00000004-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -567,9 +535,9 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="12700" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -577,39 +545,9 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:forward val="1500"/>
-            <c:intercept val="26.7"/>
+            <c:intercept val="27"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -674,7 +612,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{00000006-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -682,7 +620,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>TGA</c:v>
+            <c:v>TGA Bericht</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -693,7 +631,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -755,7 +693,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{00000007-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -812,7 +750,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{00000008-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -874,7 +812,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-2821-4B0C-AEDD-E5C9A170E7D0}"/>
+              <c16:uniqueId val="{0000000A-C759-4DC4-B33C-0EB591D55170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -911,18 +849,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nennwärmeleistung [MW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -933,12 +935,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -951,6 +950,9 @@
         <c:crossAx val="1962439152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="1962439152"/>
@@ -973,18 +975,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Investitionskosten [Tsd. €]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -995,12 +1061,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1013,15 +1076,88 @@
         <c:crossAx val="2058144560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14916238834469114"/>
+          <c:y val="8.8372830479737222E-2"/>
+          <c:w val="0.2072991972630778"/>
+          <c:h val="0.24213128033909409"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1038,12 +1174,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1058,11 +1189,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1622,31 +1748,35 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76552301-D303-4B6A-96EB-9868FE87B1FB}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>21021</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133842</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>327134</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19542</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305925" cy="6000750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA3797A-7E1B-4269-88B4-728BE7AC331A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9768D39-F34E-49A9-BEC1-3291876268E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1659,7 +1789,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1928,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -2168,6 +2298,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>